--- a/1. Project management/9. Timelog/AS_PM_Time_Log_HuyNgo.xlsx
+++ b/1. Project management/9. Timelog/AS_PM_Time_Log_HuyNgo.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thienphu\Desktop\Capstone\1. Project management\9. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="AS-PROJECT" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>Week</t>
   </si>
@@ -65,9 +64,6 @@
   </si>
   <si>
     <t>Team meeting</t>
-  </si>
-  <si>
-    <t>Team meeting to review project plan</t>
   </si>
   <si>
     <t>Time for doing week 1</t>
@@ -213,14 +209,41 @@
   </si>
   <si>
     <t>Time Recording Log For: Capstone project</t>
-  </si>
-  <si>
-    <t>[Name - ID]</t>
   </si>
   <si>
     <t xml:space="preserve">_Discuss to team  rule in team charter
 _Review project charter, communication plan, Configuration plan, Measurement plan, Weekly report and Timelog
 _Discuss to process model </t>
+  </si>
+  <si>
+    <t>Training ACDM &amp; combine some process</t>
+  </si>
+  <si>
+    <t>Meeting with mentor &amp; customer</t>
+  </si>
+  <si>
+    <t>8:00PM</t>
+  </si>
+  <si>
+    <t>10:00PM</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>3:30PM</t>
+  </si>
+  <si>
+    <t>Huy Ngo - T106772</t>
+  </si>
+  <si>
+    <t>09:00PM</t>
+  </si>
+  <si>
+    <t>Risk management</t>
+  </si>
+  <si>
+    <t>ACDM process</t>
   </si>
 </sst>
 </file>
@@ -760,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,7 +818,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -983,21 +1006,21 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1068,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1092,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1095,13 +1118,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1132,7 @@
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="60" style="1" bestFit="1" customWidth="1"/>
@@ -1138,14 +1161,14 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
       <c r="F2" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
@@ -1157,7 +1180,7 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="55"/>
@@ -1222,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>6</v>
@@ -1252,9 +1275,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
       <c r="J7" s="60" t="s">
@@ -1262,8 +1287,8 @@
       </c>
       <c r="K7" s="60"/>
       <c r="L7" s="9">
-        <f>SUM(L8:L37)</f>
-        <v>3</v>
+        <f>SUM(L8:L40)</f>
+        <v>6</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
@@ -1280,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
@@ -1288,11 +1313,13 @@
       <c r="F8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="21"/>
       <c r="I8" s="2"/>
       <c r="J8" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="22">
@@ -1303,59 +1330,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="63"/>
       <c r="B9" s="10">
-        <v>41590</v>
+        <v>41589</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="E9" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="J9" s="15"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="4">
-        <f>SUM(E8:E12)</f>
-        <v>2</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="L9" s="22"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A10" s="63"/>
       <c r="B10" s="10">
-        <v>41591</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>41590</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="2"/>
       <c r="J10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="23">
-        <f>SUM(E13:E17)</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="4">
+        <f>SUM(E8:E15)</f>
+        <v>5</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
@@ -1364,71 +1394,67 @@
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="63"/>
       <c r="B11" s="10">
-        <v>41592</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>41590</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="21"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="23">
-        <f>SUM(E18:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="10">
-        <v>41593</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>41591</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="23">
-        <f>SUM(E23:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="65">
-        <v>3</v>
-      </c>
-      <c r="B13" s="19">
-        <v>41596</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="10">
+        <v>41591</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="23">
-        <f>SUM(E28:E32)</f>
+        <f>SUM(E16:E20)</f>
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1436,23 +1462,23 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="19">
-        <v>41597</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="10">
+        <v>41592</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="23">
-        <f>SUM(E33:E37)</f>
+        <f>SUM(E21:E25)</f>
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1460,23 +1486,23 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="19">
-        <v>41598</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="10">
+        <v>41593</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="23">
-        <f>SUM(E38:E42)</f>
+        <f>SUM(E26:E30)</f>
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1484,9 +1510,11 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="65">
+        <v>3</v>
+      </c>
       <c r="B16" s="19">
-        <v>41599</v>
+        <v>41596</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1496,11 +1524,11 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="23">
-        <f>SUM(E43:E47)</f>
+        <f>SUM(E31:E35)</f>
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1510,7 +1538,7 @@
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="19">
-        <v>41600</v>
+        <v>41597</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1520,11 +1548,11 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="23">
-        <f>SUM(E48:E52)</f>
+        <f>SUM(E36:E40)</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1532,25 +1560,23 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10">
-        <v>41603</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="19">
+        <v>41598</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="15" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="23">
-        <f>SUM(E53:E57)</f>
+        <f>SUM(E41:E45)</f>
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1558,23 +1584,23 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="10">
-        <v>41604</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="19">
+        <v>41599</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="15" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="23">
-        <f>SUM(E58:E62)</f>
+        <f>SUM(E46:E50)</f>
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1582,23 +1608,23 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="10">
-        <v>41605</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="19">
+        <v>41600</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="15" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="23">
-        <f>SUM(E63:E67)</f>
+        <f>SUM(E51:E55)</f>
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1606,9 +1632,11 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="48">
+        <v>4</v>
+      </c>
       <c r="B21" s="10">
-        <v>41606</v>
+        <v>41603</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1618,11 +1646,11 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="23">
-        <f>SUM(E68:E72)</f>
+        <f>SUM(E56:E60)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1630,9 +1658,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="10">
-        <v>41607</v>
+        <v>41604</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1642,11 +1670,11 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="23">
-        <f>SUM(E73:E77)</f>
+        <f>SUM(E61:E65)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1654,25 +1682,23 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="51">
-        <v>5</v>
-      </c>
-      <c r="B23" s="19">
-        <v>41610</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="10">
+        <v>41605</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="23">
-        <f>SUM(E78:E82)</f>
+        <f>SUM(E66:E70)</f>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -1680,23 +1706,23 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="19">
-        <v>41611</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="10">
+        <v>41606</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="23">
-        <f>SUM(E83:E87)</f>
+        <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -1704,23 +1730,23 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="19">
-        <v>41612</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="10">
+        <v>41607</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="23">
-        <f>SUM(E88:E92)</f>
+        <f>SUM(E76:E80)</f>
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -1728,9 +1754,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
+      <c r="A26" s="51">
+        <v>5</v>
+      </c>
       <c r="B26" s="19">
-        <v>41613</v>
+        <v>41610</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1740,11 +1768,11 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="23">
-        <f>SUM(E93:E97)</f>
+        <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -1752,9 +1780,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="19">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1764,11 +1792,11 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="23">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E86:E90)</f>
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -1776,25 +1804,23 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
-        <v>6</v>
-      </c>
-      <c r="B28" s="10">
-        <v>41617</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="19">
+        <v>41612</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="23">
-        <f>SUM(E103:E107)</f>
+        <f>SUM(E91:E95)</f>
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -1802,23 +1828,23 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="10">
-        <v>41618</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="19">
+        <v>41613</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="23">
-        <f>SUM(E108:E112)</f>
+        <f>SUM(E96:E100)</f>
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -1826,23 +1852,23 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="10">
-        <v>41619</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="19">
+        <v>41614</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="23">
-        <f>SUM(E113:E117)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -1850,9 +1876,11 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="48">
+        <v>6</v>
+      </c>
       <c r="B31" s="10">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1862,11 +1890,11 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="23">
-        <f>SUM(E118:E122)</f>
+        <f>SUM(E106:E110)</f>
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -1874,9 +1902,9 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="10">
-        <v>41621</v>
+        <v>41618</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1886,11 +1914,11 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="23">
-        <f>SUM(E123:E127)</f>
+        <f>SUM(E111:E115)</f>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -1898,25 +1926,23 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="51">
-        <v>7</v>
-      </c>
-      <c r="B33" s="19">
-        <v>41624</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="10">
+        <v>41619</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="23">
-        <f>SUM(E128:E132)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -1924,23 +1950,23 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="19">
-        <v>41625</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="10">
+        <v>41620</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
       <c r="J34" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="23">
-        <f>SUM(E133:E137)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -1948,23 +1974,23 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="19">
-        <v>41626</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="10">
+        <v>41621</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
       <c r="J35" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="23">
-        <f>SUM(E138:E142)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -1972,9 +1998,11 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
+      <c r="A36" s="51">
+        <v>7</v>
+      </c>
       <c r="B36" s="19">
-        <v>41627</v>
+        <v>41624</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1984,11 +2012,11 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="23">
-        <f>SUM(E143:E147)</f>
+        <f>SUM(E131:E135)</f>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -1996,9 +2024,9 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="19">
-        <v>41628</v>
+        <v>41625</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2008,11 +2036,11 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="23">
-        <f>SUM(E148:E152)</f>
+        <f>SUM(E136:E140)</f>
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -2020,50 +2048,83 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="48">
+      <c r="A38" s="52"/>
+      <c r="B38" s="19">
+        <v>41626</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="23">
+        <f>SUM(E141:E145)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="52"/>
+      <c r="B39" s="19">
+        <v>41627</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="23">
+        <f>SUM(E146:E150)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="19">
+        <v>41628</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="23">
+        <f>SUM(E151:E155)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="48">
         <v>8</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B41" s="10">
         <v>41631</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="10">
-        <v>41632</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="10">
-        <v>41633</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="10">
-        <v>41634</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2074,9 +2135,9 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="10">
-        <v>41635</v>
+        <v>41632</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2087,50 +2148,50 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="51">
+      <c r="A43" s="49"/>
+      <c r="B43" s="10">
+        <v>41633</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="49"/>
+      <c r="B44" s="10">
+        <v>41634</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="10">
+        <v>41635</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="51">
         <v>9</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B46" s="19">
         <v>41638</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
-      <c r="B44" s="19">
-        <v>41639</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
-      <c r="B45" s="19">
-        <v>41640</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="19">
-        <v>41641</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2141,9 +2202,9 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="19">
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2154,50 +2215,50 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="48">
+      <c r="A48" s="52"/>
+      <c r="B48" s="19">
+        <v>41640</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="52"/>
+      <c r="B49" s="19">
+        <v>41641</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="53"/>
+      <c r="B50" s="19">
+        <v>41642</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="48">
         <v>10</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B51" s="10">
         <v>41645</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="10">
-        <v>41646</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="10">
-        <v>41647</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="10">
-        <v>41648</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2208,9 +2269,9 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="10">
-        <v>41649</v>
+        <v>41646</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2221,50 +2282,50 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="51">
+      <c r="A53" s="49"/>
+      <c r="B53" s="10">
+        <v>41647</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="49"/>
+      <c r="B54" s="10">
+        <v>41648</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+      <c r="B55" s="10">
+        <v>41649</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="51">
         <v>11</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B56" s="19">
         <v>41652</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="19">
-        <v>41653</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="19">
-        <v>41654</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="52"/>
-      <c r="B56" s="19">
-        <v>41655</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2275,9 +2336,9 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="19">
-        <v>41656</v>
+        <v>41653</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2288,50 +2349,50 @@
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="48">
+      <c r="A58" s="52"/>
+      <c r="B58" s="19">
+        <v>41654</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="52"/>
+      <c r="B59" s="19">
+        <v>41655</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="19">
+        <v>41656</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="48">
         <v>12</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B61" s="10">
         <v>41659</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="10">
-        <v>41660</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="10">
-        <v>41661</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="10">
-        <v>41662</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2342,9 +2403,9 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="10">
-        <v>41663</v>
+        <v>41660</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2355,204 +2416,204 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="51">
+      <c r="A63" s="49"/>
+      <c r="B63" s="10">
+        <v>41661</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="49"/>
+      <c r="B64" s="10">
+        <v>41662</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="10">
+        <v>41663</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="51">
         <v>13</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B66" s="19">
         <v>41666</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="52"/>
-      <c r="B64" s="19">
-        <v>41667</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="52"/>
-      <c r="B65" s="19">
-        <v>41668</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="52"/>
-      <c r="B66" s="19">
-        <v>41669</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="19">
-        <v>41670</v>
+        <v>41667</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="48">
+      <c r="A68" s="52"/>
+      <c r="B68" s="19">
+        <v>41668</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="52"/>
+      <c r="B69" s="19">
+        <v>41669</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="53"/>
+      <c r="B70" s="19">
+        <v>41670</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="48">
         <v>14</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B71" s="10">
         <v>41673</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="10">
-        <v>41674</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="10">
-        <v>41675</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="10">
-        <v>41676</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="10">
-        <v>41677</v>
+        <v>41674</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="51">
+      <c r="A73" s="49"/>
+      <c r="B73" s="10">
+        <v>41675</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="49"/>
+      <c r="B74" s="10">
+        <v>41676</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+      <c r="B75" s="10">
+        <v>41677</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="51">
         <v>15</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B76" s="19">
         <v>41680</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="52"/>
-      <c r="B74" s="19">
-        <v>41681</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="52"/>
-      <c r="B75" s="19">
-        <v>41682</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="52"/>
-      <c r="B76" s="19">
-        <v>41683</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2563,9 +2624,9 @@
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="19">
-        <v>41684</v>
+        <v>41681</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2576,50 +2637,50 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="48">
+      <c r="A78" s="52"/>
+      <c r="B78" s="19">
+        <v>41682</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="52"/>
+      <c r="B79" s="19">
+        <v>41683</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="53"/>
+      <c r="B80" s="19">
+        <v>41684</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="48">
         <v>16</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B81" s="10">
         <v>41687</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="10">
-        <v>41688</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="10">
-        <v>41689</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="10">
-        <v>41690</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2630,9 +2691,9 @@
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
+      <c r="A82" s="49"/>
       <c r="B82" s="10">
-        <v>41691</v>
+        <v>41688</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2643,50 +2704,50 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="51">
+      <c r="A83" s="49"/>
+      <c r="B83" s="10">
+        <v>41689</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="49"/>
+      <c r="B84" s="10">
+        <v>41690</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="50"/>
+      <c r="B85" s="10">
+        <v>41691</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="51">
         <v>17</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B86" s="19">
         <v>41694</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="52"/>
-      <c r="B84" s="19">
-        <v>41695</v>
-      </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="52"/>
-      <c r="B85" s="19">
-        <v>41696</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="52"/>
-      <c r="B86" s="19">
-        <v>41697</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -2697,9 +2758,9 @@
       <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="19">
-        <v>41698</v>
+        <v>41695</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -2710,50 +2771,50 @@
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="48">
+      <c r="A88" s="52"/>
+      <c r="B88" s="19">
+        <v>41696</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="52"/>
+      <c r="B89" s="19">
+        <v>41697</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="53"/>
+      <c r="B90" s="19">
+        <v>41698</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="48">
         <v>18</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B91" s="10">
         <v>41701</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="10">
-        <v>41702</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="10">
-        <v>41703</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="10">
-        <v>41704</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2764,9 +2825,9 @@
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="50"/>
+      <c r="A92" s="49"/>
       <c r="B92" s="10">
-        <v>41705</v>
+        <v>41702</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2777,50 +2838,50 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="51">
+      <c r="A93" s="49"/>
+      <c r="B93" s="10">
+        <v>41703</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="49"/>
+      <c r="B94" s="10">
+        <v>41704</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="50"/>
+      <c r="B95" s="10">
+        <v>41705</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="51">
         <v>19</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B96" s="19">
         <v>41708</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="52"/>
-      <c r="B94" s="19">
-        <v>41709</v>
-      </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="52"/>
-      <c r="B95" s="19">
-        <v>41710</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="52"/>
-      <c r="B96" s="19">
-        <v>41711</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -2831,9 +2892,9 @@
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="19">
-        <v>41712</v>
+        <v>41709</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -2844,50 +2905,50 @@
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="48">
+      <c r="A98" s="52"/>
+      <c r="B98" s="19">
+        <v>41710</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="52"/>
+      <c r="B99" s="19">
+        <v>41711</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="53"/>
+      <c r="B100" s="19">
+        <v>41712</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="48">
         <v>20</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B101" s="10">
         <v>41715</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
-      <c r="B99" s="10">
-        <v>41716</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-      <c r="B100" s="10">
-        <v>41717</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
-      <c r="B101" s="10">
-        <v>41718</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2898,9 +2959,9 @@
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="50"/>
+      <c r="A102" s="49"/>
       <c r="B102" s="10">
-        <v>41719</v>
+        <v>41716</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2911,50 +2972,50 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="51">
+      <c r="A103" s="49"/>
+      <c r="B103" s="10">
+        <v>41717</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="49"/>
+      <c r="B104" s="10">
+        <v>41718</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="50"/>
+      <c r="B105" s="10">
+        <v>41719</v>
+      </c>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="51">
         <v>21</v>
       </c>
-      <c r="B103" s="19">
+      <c r="B106" s="19">
         <v>41722</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="52"/>
-      <c r="B104" s="19">
-        <v>41723</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="52"/>
-      <c r="B105" s="19">
-        <v>41724</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="52"/>
-      <c r="B106" s="19">
-        <v>41725</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -2965,9 +3026,9 @@
       <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="19">
-        <v>41726</v>
+        <v>41723</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -2978,50 +3039,50 @@
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="48">
+      <c r="A108" s="52"/>
+      <c r="B108" s="19">
+        <v>41724</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="52"/>
+      <c r="B109" s="19">
+        <v>41725</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="53"/>
+      <c r="B110" s="19">
+        <v>41726</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="48">
         <v>22</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B111" s="10">
         <v>41729</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
-      <c r="B109" s="10">
-        <v>41730</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
-      <c r="B110" s="10">
-        <v>41731</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
-      <c r="B111" s="10">
-        <v>41732</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3032,9 +3093,9 @@
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="10">
-        <v>41733</v>
+        <v>41730</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3045,50 +3106,50 @@
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="51">
+      <c r="A113" s="49"/>
+      <c r="B113" s="10">
+        <v>41731</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="49"/>
+      <c r="B114" s="10">
+        <v>41732</v>
+      </c>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="50"/>
+      <c r="B115" s="10">
+        <v>41733</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="51">
         <v>23</v>
       </c>
-      <c r="B113" s="19">
+      <c r="B116" s="19">
         <v>41736</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="52"/>
-      <c r="B114" s="19">
-        <v>41737</v>
-      </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="52"/>
-      <c r="B115" s="19">
-        <v>41738</v>
-      </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="52"/>
-      <c r="B116" s="19">
-        <v>41739</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -3099,9 +3160,9 @@
       <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="19">
-        <v>41740</v>
+        <v>41737</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3112,50 +3173,50 @@
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="48">
+      <c r="A118" s="52"/>
+      <c r="B118" s="19">
+        <v>41738</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="52"/>
+      <c r="B119" s="19">
+        <v>41739</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="53"/>
+      <c r="B120" s="19">
+        <v>41740</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="48">
         <v>24</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B121" s="10">
         <v>41743</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
-      <c r="B119" s="10">
-        <v>41744</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
-      <c r="B120" s="10">
-        <v>41745</v>
-      </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="49"/>
-      <c r="B121" s="10">
-        <v>41746</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3166,9 +3227,9 @@
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="50"/>
+      <c r="A122" s="49"/>
       <c r="B122" s="10">
-        <v>41747</v>
+        <v>41744</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3179,50 +3240,50 @@
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="51">
+      <c r="A123" s="49"/>
+      <c r="B123" s="10">
+        <v>41745</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="49"/>
+      <c r="B124" s="10">
+        <v>41746</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="50"/>
+      <c r="B125" s="10">
+        <v>41747</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="51">
         <v>25</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B126" s="19">
         <v>41750</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="52"/>
-      <c r="B124" s="19">
-        <v>41751</v>
-      </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
-      <c r="B125" s="19">
-        <v>41752</v>
-      </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="52"/>
-      <c r="B126" s="19">
-        <v>41753</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -3233,9 +3294,9 @@
       <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="19">
-        <v>41754</v>
+        <v>41751</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3246,50 +3307,50 @@
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="48">
+      <c r="A128" s="52"/>
+      <c r="B128" s="19">
+        <v>41752</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="52"/>
+      <c r="B129" s="19">
+        <v>41753</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="53"/>
+      <c r="B130" s="19">
+        <v>41754</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="48">
         <v>26</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B131" s="10">
         <v>41757</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="49"/>
-      <c r="B129" s="10">
-        <v>41758</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="49"/>
-      <c r="B130" s="10">
-        <v>41759</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-    </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="49"/>
-      <c r="B131" s="10">
-        <v>41760</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3300,9 +3361,9 @@
       <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
+      <c r="A132" s="49"/>
       <c r="B132" s="10">
-        <v>41761</v>
+        <v>41758</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3313,50 +3374,50 @@
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="51">
+      <c r="A133" s="49"/>
+      <c r="B133" s="10">
+        <v>41759</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="49"/>
+      <c r="B134" s="10">
+        <v>41760</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="50"/>
+      <c r="B135" s="10">
+        <v>41761</v>
+      </c>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="51">
         <v>27</v>
       </c>
-      <c r="B133" s="19">
+      <c r="B136" s="19">
         <v>41764</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="52"/>
-      <c r="B134" s="19">
-        <v>41765</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="52"/>
-      <c r="B135" s="19">
-        <v>41766</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="52"/>
-      <c r="B136" s="19">
-        <v>41767</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3367,9 +3428,9 @@
       <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="19">
-        <v>41768</v>
+        <v>41765</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3380,50 +3441,50 @@
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="48">
+      <c r="A138" s="52"/>
+      <c r="B138" s="19">
+        <v>41766</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="52"/>
+      <c r="B139" s="19">
+        <v>41767</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="53"/>
+      <c r="B140" s="19">
+        <v>41768</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="48">
         <v>28</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B141" s="10">
         <v>41771</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
-      <c r="B139" s="10">
-        <v>41772</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-    </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
-      <c r="B140" s="10">
-        <v>41773</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="6"/>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="49"/>
-      <c r="B141" s="10">
-        <v>41774</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3434,9 +3495,9 @@
       <c r="I141" s="6"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="50"/>
+      <c r="A142" s="49"/>
       <c r="B142" s="10">
-        <v>41775</v>
+        <v>41772</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3447,50 +3508,50 @@
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="51">
+      <c r="A143" s="49"/>
+      <c r="B143" s="10">
+        <v>41773</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="49"/>
+      <c r="B144" s="10">
+        <v>41774</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="50"/>
+      <c r="B145" s="10">
+        <v>41775</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="51">
         <v>29</v>
       </c>
-      <c r="B143" s="19">
+      <c r="B146" s="19">
         <v>41778</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="52"/>
-      <c r="B144" s="19">
-        <v>41779</v>
-      </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-    </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="52"/>
-      <c r="B145" s="19">
-        <v>41780</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="52"/>
-      <c r="B146" s="19">
-        <v>41781</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -3501,9 +3562,9 @@
       <c r="I146" s="5"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
+      <c r="A147" s="52"/>
       <c r="B147" s="19">
-        <v>41782</v>
+        <v>41779</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -3514,50 +3575,50 @@
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="69">
+      <c r="A148" s="52"/>
+      <c r="B148" s="19">
+        <v>41780</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="52"/>
+      <c r="B149" s="19">
+        <v>41781</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="53"/>
+      <c r="B150" s="19">
+        <v>41782</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+    </row>
+    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="69">
         <v>30</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B151" s="10">
         <v>41785</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="70"/>
-      <c r="B149" s="10">
-        <v>41786</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="70"/>
-      <c r="B150" s="10">
-        <v>41787</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="70"/>
-      <c r="B151" s="10">
-        <v>41788</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -3568,9 +3629,9 @@
       <c r="I151" s="2"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="71"/>
+      <c r="A152" s="70"/>
       <c r="B152" s="10">
-        <v>41789</v>
+        <v>41786</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -3581,223 +3642,262 @@
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B153" s="20">
+      <c r="A153" s="70"/>
+      <c r="B153" s="10">
+        <v>41787</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="70"/>
+      <c r="B154" s="10">
+        <v>41788</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="71"/>
+      <c r="B155" s="10">
+        <v>41789</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B156" s="20">
         <v>41790</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B154" s="10">
-        <v>41791</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B155" s="10">
-        <v>41792</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B156" s="10">
-        <v>41793</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B157" s="10">
-        <v>41794</v>
+        <v>41791</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B158" s="10">
-        <v>41795</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B159" s="10">
-        <v>41796</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B160" s="10">
-        <v>41797</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B161" s="10">
-        <v>41798</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B162" s="10">
-        <v>41799</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B163" s="10">
-        <v>41800</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B164" s="10">
-        <v>41801</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B165" s="10">
-        <v>41802</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B166" s="10">
-        <v>41803</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B167" s="10">
-        <v>41804</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B168" s="10">
-        <v>41805</v>
+        <v>41802</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B169" s="10">
-        <v>41806</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B170" s="10">
-        <v>41807</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="171" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
-        <v>41808</v>
+        <v>41805</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B172" s="10">
-        <v>41809</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B173" s="10">
-        <v>41810</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="174" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B174" s="10">
-        <v>41811</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B175" s="10">
-        <v>41812</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B176" s="10">
-        <v>41813</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B177" s="10">
-        <v>41814</v>
+        <v>41811</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B178" s="10">
-        <v>41815</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
-        <v>41816</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
-        <v>41817</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B181" s="10">
-        <v>41818</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B182" s="10">
-        <v>41819</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
-        <v>41820</v>
+        <v>41817</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B184" s="10">
-        <v>41821</v>
+        <v>41818</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B185" s="10">
-        <v>41822</v>
+        <v>41819</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B186" s="10">
-        <v>41823</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B188" s="10">
+        <v>41822</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B189" s="10">
+        <v>41823</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B190" s="10">
         <v>41824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J6:M6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L9" formulaRange="1"/>
+    <ignoredError sqref="L10" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>